--- a/data/trans_orig/P58-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P58-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF98CC3E-39EE-42D7-9105-F561E5A9B6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F892A00-BAEC-44B3-88EB-D905164B0EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{58B5E07D-3A81-4111-B7D4-B872B4A2E7EF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB128F97-B1AC-4EBC-A66D-748CC914B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="590">
   <si>
     <t>Población según su lugar de nacimiento en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -86,19 +86,19 @@
     <t>5,01%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>Resto de España</t>
@@ -107,10 +107,10 @@
     <t>6,35%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
   </si>
   <si>
     <t>2,72%</t>
@@ -119,1687 +119,1696 @@
     <t>0,89%</t>
   </si>
   <si>
-    <t>7,25%</t>
+    <t>7,22%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>1,98%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>Andalucia</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>Andalucia</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2015 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
   </si>
   <si>
     <t>87,45%</t>
   </si>
   <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2015 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>4,73%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>94,04%</t>
+    <t>94,05%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>92,82%</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2DB242-36F0-4D8E-8FF0-16EEF4D503C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C4981A-E683-4A09-B1B2-136756127D31}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2780,10 +2789,10 @@
         <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2807,13 @@
         <v>69101</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -2813,13 +2822,13 @@
         <v>47070</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -2828,13 +2837,13 @@
         <v>116171</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,13 +2858,13 @@
         <v>838535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>832</v>
@@ -2864,13 +2873,13 @@
         <v>863367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>1656</v>
@@ -2879,13 +2888,13 @@
         <v>1701902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,7 +2950,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2953,13 +2962,13 @@
         <v>66478</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -2968,13 +2977,13 @@
         <v>62827</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -2983,13 +2992,13 @@
         <v>129306</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3013,13 @@
         <v>66152</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -3019,13 +3028,13 @@
         <v>57346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -3034,13 +3043,13 @@
         <v>123498</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3064,13 @@
         <v>545879</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>602</v>
@@ -3070,13 +3079,13 @@
         <v>563668</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>1165</v>
@@ -3085,13 +3094,13 @@
         <v>1109546</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,7 +3156,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3159,13 +3168,13 @@
         <v>68691</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -3174,13 +3183,13 @@
         <v>73302</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>92</v>
@@ -3189,13 +3198,13 @@
         <v>141993</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3219,13 @@
         <v>105880</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
@@ -3225,13 +3234,13 @@
         <v>113456</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>163</v>
@@ -3240,13 +3249,13 @@
         <v>219336</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3270,13 @@
         <v>767651</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>855</v>
@@ -3276,13 +3285,13 @@
         <v>851855</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>1732</v>
@@ -3291,13 +3300,13 @@
         <v>1619505</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3374,13 @@
         <v>204415</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>141</v>
@@ -3380,13 +3389,13 @@
         <v>224604</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>268</v>
@@ -3395,13 +3404,13 @@
         <v>429019</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3425,13 @@
         <v>272955</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>210</v>
@@ -3431,13 +3440,13 @@
         <v>249635</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>372</v>
@@ -3446,13 +3455,13 @@
         <v>522590</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3476,13 @@
         <v>2799173</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>2938</v>
@@ -3482,13 +3491,13 @@
         <v>2904958</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>5855</v>
@@ -3497,13 +3506,13 @@
         <v>5704131</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,7 +3568,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3580,7 +3589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED9638B-DE94-4988-BEBA-F3E6D1D076A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7EFD79-274F-4D98-9703-97592B2E985D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3597,7 +3606,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3704,13 +3713,13 @@
         <v>4530</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3719,13 +3728,13 @@
         <v>2425</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3734,13 +3743,13 @@
         <v>6955</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,13 +3764,13 @@
         <v>18003</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3770,13 +3779,13 @@
         <v>6482</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -3785,13 +3794,13 @@
         <v>24485</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3815,13 @@
         <v>93232</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c r="H6" s="7">
         <v>94</v>
@@ -3821,13 +3830,13 @@
         <v>102998</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M6" s="7">
         <v>202</v>
@@ -3836,13 +3845,13 @@
         <v>196230</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3919,13 @@
         <v>22115</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -3925,13 +3934,13 @@
         <v>16383</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -3940,13 +3949,13 @@
         <v>38497</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3970,13 @@
         <v>43647</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -3976,13 +3985,13 @@
         <v>48928</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M9" s="7">
         <v>48</v>
@@ -3991,13 +4000,13 @@
         <v>92575</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4021,13 @@
         <v>521942</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
         <v>510</v>
@@ -4027,13 +4036,13 @@
         <v>519834</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
         <v>1024</v>
@@ -4042,13 +4051,13 @@
         <v>1041776</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4125,13 @@
         <v>49108</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -4131,13 +4140,13 @@
         <v>47664</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M12" s="7">
         <v>76</v>
@@ -4146,13 +4155,13 @@
         <v>96772</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4176,13 @@
         <v>81773</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -4182,13 +4191,13 @@
         <v>85127</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4197,13 +4206,13 @@
         <v>166901</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4227,13 @@
         <v>887065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H14" s="7">
         <v>856</v>
@@ -4233,13 +4242,13 @@
         <v>899393</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M14" s="7">
         <v>1717</v>
@@ -4248,13 +4257,13 @@
         <v>1786458</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,7 +4319,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4322,13 +4331,13 @@
         <v>74980</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -4337,13 +4346,13 @@
         <v>96632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
@@ -4352,13 +4361,13 @@
         <v>171612</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4382,13 @@
         <v>108823</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -4388,13 +4397,13 @@
         <v>101619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -4403,13 +4412,13 @@
         <v>210442</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4433,13 @@
         <v>573820</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="H18" s="7">
         <v>571</v>
@@ -4439,13 +4448,13 @@
         <v>578923</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M18" s="7">
         <v>1150</v>
@@ -4454,13 +4463,13 @@
         <v>1152743</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,7 +4525,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4528,13 +4537,13 @@
         <v>58494</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -4543,13 +4552,13 @@
         <v>68270</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -4558,13 +4567,13 @@
         <v>126765</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4588,13 @@
         <v>106975</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H21" s="7">
         <v>61</v>
@@ -4594,13 +4603,13 @@
         <v>110176</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
@@ -4609,13 +4618,13 @@
         <v>217151</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4639,13 @@
         <v>782269</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="H22" s="7">
         <v>883</v>
@@ -4645,13 +4654,13 @@
         <v>873455</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>1695</v>
@@ -4660,13 +4669,13 @@
         <v>1655724</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4743,13 @@
         <v>209227</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="H24" s="7">
         <v>194</v>
@@ -4749,13 +4758,13 @@
         <v>231374</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="M24" s="7">
         <v>356</v>
@@ -4764,13 +4773,13 @@
         <v>440601</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4794,13 @@
         <v>359222</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="H25" s="7">
         <v>190</v>
@@ -4800,13 +4809,13 @@
         <v>352332</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
         <v>363</v>
@@ -4815,13 +4824,13 @@
         <v>711554</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4845,13 @@
         <v>2858330</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="H26" s="7">
         <v>2914</v>
@@ -4851,13 +4860,13 @@
         <v>2974603</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>217</v>
+        <v>324</v>
       </c>
       <c r="M26" s="7">
         <v>5788</v>
@@ -4866,13 +4875,13 @@
         <v>5832933</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,7 +4937,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4949,7 +4958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCA24EB-A8B1-4B8D-AB5E-B37D1A0A0AA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F44FDE0-C317-4500-8B06-6C5D8220A33E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4966,7 +4975,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5073,13 +5082,13 @@
         <v>2778</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -5088,13 +5097,13 @@
         <v>5128</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>22</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5103,13 +5112,13 @@
         <v>7906</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5133,13 @@
         <v>9932</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5139,13 +5148,13 @@
         <v>15260</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5154,13 +5163,13 @@
         <v>25191</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5184,13 @@
         <v>103836</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="H6" s="7">
         <v>100</v>
@@ -5190,13 +5199,13 @@
         <v>92973</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M6" s="7">
         <v>205</v>
@@ -5205,13 +5214,13 @@
         <v>196809</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,13 +5288,13 @@
         <v>28421</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -5294,13 +5303,13 @@
         <v>28455</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -5309,13 +5318,13 @@
         <v>56875</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5339,13 @@
         <v>47650</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -5345,13 +5354,13 @@
         <v>50180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
@@ -5360,13 +5369,13 @@
         <v>97830</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>354</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5390,13 @@
         <v>482183</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="H10" s="7">
         <v>492</v>
@@ -5396,13 +5405,13 @@
         <v>480844</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>981</v>
@@ -5411,13 +5420,13 @@
         <v>963027</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5494,13 @@
         <v>80650</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>305</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="H12" s="7">
         <v>72</v>
@@ -5500,13 +5509,13 @@
         <v>76737</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="M12" s="7">
         <v>132</v>
@@ -5515,13 +5524,13 @@
         <v>157388</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5545,13 @@
         <v>90179</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -5551,13 +5560,13 @@
         <v>105778</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -5566,13 +5575,13 @@
         <v>195957</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5596,13 @@
         <v>851602</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>843</v>
@@ -5602,13 +5611,13 @@
         <v>860397</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="M14" s="7">
         <v>1682</v>
@@ -5617,13 +5626,13 @@
         <v>1711999</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,7 +5688,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5691,13 +5700,13 @@
         <v>43888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>203</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -5706,13 +5715,13 @@
         <v>62488</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>88</v>
@@ -5721,13 +5730,13 @@
         <v>106376</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>53</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5751,13 @@
         <v>75557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -5757,13 +5766,13 @@
         <v>55889</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -5772,13 +5781,13 @@
         <v>131445</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5802,13 @@
         <v>640107</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="H18" s="7">
         <v>647</v>
@@ -5808,13 +5817,13 @@
         <v>666635</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="M18" s="7">
         <v>1267</v>
@@ -5823,13 +5832,13 @@
         <v>1306742</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,7 +5894,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5897,13 +5906,13 @@
         <v>52898</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -5912,13 +5921,13 @@
         <v>58680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>94</v>
@@ -5930,10 +5939,10 @@
         <v>70</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>47</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5957,13 @@
         <v>92429</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="H21" s="7">
         <v>57</v>
@@ -5963,13 +5972,13 @@
         <v>98998</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>415</v>
+        <v>154</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>416</v>
+        <v>314</v>
       </c>
       <c r="M21" s="7">
         <v>115</v>
@@ -5978,13 +5987,13 @@
         <v>191427</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +6008,13 @@
         <v>792240</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="H22" s="7">
         <v>850</v>
@@ -6014,13 +6023,13 @@
         <v>886101</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="M22" s="7">
         <v>1682</v>
@@ -6029,13 +6038,13 @@
         <v>1678341</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,13 +6112,13 @@
         <v>208635</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="H24" s="7">
         <v>212</v>
@@ -6118,13 +6127,13 @@
         <v>231488</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>432</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>208</v>
+        <v>443</v>
       </c>
       <c r="M24" s="7">
         <v>370</v>
@@ -6133,13 +6142,13 @@
         <v>440123</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>433</v>
+        <v>208</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>434</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6163,13 @@
         <v>315746</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H25" s="7">
         <v>194</v>
@@ -6169,13 +6178,13 @@
         <v>326105</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="M25" s="7">
         <v>381</v>
@@ -6184,13 +6193,13 @@
         <v>641851</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6214,13 @@
         <v>2869969</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="H26" s="7">
         <v>2932</v>
@@ -6220,13 +6229,13 @@
         <v>2986949</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>293</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>5817</v>
@@ -6235,13 +6244,13 @@
         <v>5856918</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,7 +6306,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6318,7 +6327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE42EBF-C31A-474D-9301-BC7B77D27F30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68F9C4C-2147-457A-94B2-D6E5B2776729}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6335,7 +6344,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6442,13 +6451,13 @@
         <v>958</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -6457,13 +6466,13 @@
         <v>955</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -6472,13 +6481,13 @@
         <v>1912</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6502,13 @@
         <v>3512</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>43</v>
+        <v>468</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>369</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -6508,13 +6517,13 @@
         <v>5394</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>458</v>
+        <v>394</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -6523,13 +6532,13 @@
         <v>8905</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6553,13 @@
         <v>97513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="H6" s="7">
         <v>225</v>
@@ -6559,13 +6568,13 @@
         <v>124027</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>468</v>
+        <v>200</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="M6" s="7">
         <v>333</v>
@@ -6574,13 +6583,13 @@
         <v>221540</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,13 +6657,13 @@
         <v>5428</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -6663,13 +6672,13 @@
         <v>6847</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -6678,13 +6687,13 @@
         <v>12275</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6699,13 +6708,13 @@
         <v>19534</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>182</v>
+        <v>490</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -6714,13 +6723,13 @@
         <v>16999</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>384</v>
+        <v>493</v>
       </c>
       <c r="M9" s="7">
         <v>47</v>
@@ -6729,13 +6738,13 @@
         <v>36534</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>74</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,13 +6759,13 @@
         <v>524861</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="H10" s="7">
         <v>922</v>
@@ -6765,13 +6774,13 @@
         <v>568708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="M10" s="7">
         <v>1483</v>
@@ -6780,13 +6789,13 @@
         <v>1093569</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,13 +6863,13 @@
         <v>11815</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>506</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="H12" s="7">
         <v>90</v>
@@ -6869,13 +6878,13 @@
         <v>14334</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="M12" s="7">
         <v>164</v>
@@ -6884,13 +6893,13 @@
         <v>26149</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6905,13 +6914,13 @@
         <v>39691</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -6923,10 +6932,10 @@
         <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>505</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -6935,13 +6944,13 @@
         <v>76224</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>508</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6956,13 +6965,13 @@
         <v>931469</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="H14" s="7">
         <v>1374</v>
@@ -6971,13 +6980,13 @@
         <v>1005996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="M14" s="7">
         <v>2228</v>
@@ -6986,13 +6995,13 @@
         <v>1937464</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,7 +7057,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7060,13 +7069,13 @@
         <v>11334</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>43</v>
+        <v>506</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="H16" s="7">
         <v>137</v>
@@ -7078,10 +7087,10 @@
         <v>519</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>48</v>
+        <v>532</v>
       </c>
       <c r="M16" s="7">
         <v>208</v>
@@ -7090,13 +7099,13 @@
         <v>33171</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,13 +7120,13 @@
         <v>57970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>524</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>525</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -7126,13 +7135,13 @@
         <v>52398</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="M17" s="7">
         <v>128</v>
@@ -7141,13 +7150,13 @@
         <v>110368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>541</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7162,13 +7171,13 @@
         <v>659468</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="H18" s="7">
         <v>831</v>
@@ -7177,13 +7186,13 @@
         <v>675974</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="M18" s="7">
         <v>1381</v>
@@ -7192,13 +7201,13 @@
         <v>1335441</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>538</v>
+        <v>61</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>194</v>
+        <v>549</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,7 +7263,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7266,13 +7275,13 @@
         <v>9891</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="H20" s="7">
         <v>94</v>
@@ -7281,13 +7290,13 @@
         <v>14965</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>544</v>
+        <v>486</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="M20" s="7">
         <v>156</v>
@@ -7296,13 +7305,13 @@
         <v>24856</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>548</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,13 +7326,13 @@
         <v>60198</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>549</v>
+        <v>215</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>386</v>
+        <v>557</v>
       </c>
       <c r="H21" s="7">
         <v>97</v>
@@ -7332,13 +7341,13 @@
         <v>70350</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>551</v>
+        <v>352</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>552</v>
+        <v>167</v>
       </c>
       <c r="M21" s="7">
         <v>158</v>
@@ -7347,13 +7356,13 @@
         <v>130548</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>553</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7368,13 +7377,13 @@
         <v>895314</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="H22" s="7">
         <v>1365</v>
@@ -7383,13 +7392,13 @@
         <v>1035961</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>560</v>
+        <v>475</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="M22" s="7">
         <v>2248</v>
@@ -7398,13 +7407,13 @@
         <v>1931275</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,13 +7481,13 @@
         <v>39425</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>566</v>
+        <v>187</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>475</v>
+        <v>570</v>
       </c>
       <c r="H24" s="7">
         <v>370</v>
@@ -7487,13 +7496,13 @@
         <v>58939</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="M24" s="7">
         <v>617</v>
@@ -7502,13 +7511,13 @@
         <v>98364</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,13 +7532,13 @@
         <v>180904</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>574</v>
+        <v>57</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>261</v>
@@ -7538,13 +7547,13 @@
         <v>181674</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="M25" s="7">
         <v>432</v>
@@ -7553,13 +7562,13 @@
         <v>362578</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>50</v>
+        <v>581</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7574,13 +7583,13 @@
         <v>3108625</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H26" s="7">
         <v>4717</v>
@@ -7589,13 +7598,13 @@
         <v>3410665</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="M26" s="7">
         <v>7673</v>
@@ -7604,13 +7613,13 @@
         <v>6519290</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>586</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,7 +7675,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P58-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P58-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F892A00-BAEC-44B3-88EB-D905164B0EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C48A066A-40CF-4D70-A237-6060F1255717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB128F97-B1AC-4EBC-A66D-748CC914B0BC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B8DE701F-B45B-41FF-BADF-54820A1E4AE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="585">
   <si>
     <t>Población según su lugar de nacimiento en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Extranjero</t>
@@ -86,10 +86,10 @@
     <t>5,01%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
   </si>
   <si>
     <t>2,48%</t>
@@ -98,7 +98,7 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>6,74%</t>
+    <t>6,14%</t>
   </si>
   <si>
     <t>Resto de España</t>
@@ -107,10 +107,10 @@
     <t>6,35%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
   <si>
     <t>2,72%</t>
@@ -119,13 +119,13 @@
     <t>0,89%</t>
   </si>
   <si>
-    <t>7,22%</t>
+    <t>7,34%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>2,08%</t>
+    <t>1,85%</t>
   </si>
   <si>
     <t>8,77%</t>
@@ -137,1657 +137,1642 @@
     <t>93,65%</t>
   </si>
   <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>92,97%</t>
   </si>
   <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2016 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2015 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
   </si>
   <si>
     <t>93,38%</t>
@@ -2220,7 +2205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C4981A-E683-4A09-B1B2-136756127D31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641114A4-2B14-4BC1-A039-CD50E0439BFB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2616,13 +2601,13 @@
         <v>28701</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>38</v>
@@ -2631,13 +2616,13 @@
         <v>53198</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2637,13 @@
         <v>539076</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>528</v>
@@ -2667,13 +2652,13 @@
         <v>522027</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>1080</v>
@@ -2682,13 +2667,13 @@
         <v>1061102</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,7 +2729,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2756,13 +2741,13 @@
         <v>54164</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
@@ -2771,13 +2756,13 @@
         <v>57957</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>67</v>
@@ -2786,13 +2771,13 @@
         <v>112120</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2792,13 @@
         <v>69101</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -2822,13 +2807,13 @@
         <v>47070</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -2837,13 +2822,13 @@
         <v>116171</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2843,13 @@
         <v>838535</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>832</v>
@@ -2873,13 +2858,13 @@
         <v>863367</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>1656</v>
@@ -2888,13 +2873,13 @@
         <v>1701902</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,7 +2935,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2962,13 +2947,13 @@
         <v>66478</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -2977,13 +2962,13 @@
         <v>62827</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -2992,13 +2977,13 @@
         <v>129306</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +2998,13 @@
         <v>66152</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -3028,13 +3013,13 @@
         <v>57346</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -3043,13 +3028,13 @@
         <v>123498</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3049,13 @@
         <v>545879</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>602</v>
@@ -3079,13 +3064,13 @@
         <v>563668</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>1165</v>
@@ -3094,13 +3079,13 @@
         <v>1109546</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,7 +3141,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3168,7 +3153,7 @@
         <v>68691</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>126</v>
@@ -3494,10 +3479,10 @@
         <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>5855</v>
@@ -3506,13 +3491,13 @@
         <v>5704131</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3553,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3589,7 +3574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7EFD79-274F-4D98-9703-97592B2E985D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80389FCF-E958-4F4D-95B8-B9D70C7D3763}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3606,7 +3591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3713,13 +3698,13 @@
         <v>4530</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3728,13 +3713,13 @@
         <v>2425</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3743,13 +3728,13 @@
         <v>6955</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3749,13 @@
         <v>18003</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3779,13 +3764,13 @@
         <v>6482</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -3794,13 +3779,13 @@
         <v>24485</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3800,13 @@
         <v>93232</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H6" s="7">
         <v>94</v>
@@ -3830,13 +3815,13 @@
         <v>102998</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M6" s="7">
         <v>202</v>
@@ -3845,13 +3830,13 @@
         <v>196230</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3904,13 @@
         <v>22115</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -3934,13 +3919,13 @@
         <v>16383</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -3988,10 +3973,10 @@
         <v>217</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M9" s="7">
         <v>48</v>
@@ -4000,13 +3985,13 @@
         <v>92575</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4006,13 @@
         <v>521942</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H10" s="7">
         <v>510</v>
@@ -4036,13 +4021,13 @@
         <v>519834</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>1024</v>
@@ -4051,13 +4036,13 @@
         <v>1041776</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,7 +4098,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4125,13 +4110,13 @@
         <v>49108</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -4140,13 +4125,13 @@
         <v>47664</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>76</v>
@@ -4155,13 +4140,13 @@
         <v>96772</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,13 +4161,13 @@
         <v>81773</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -4191,13 +4176,13 @@
         <v>85127</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4206,13 +4191,13 @@
         <v>166901</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,13 +4212,13 @@
         <v>887065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
         <v>856</v>
@@ -4242,13 +4227,13 @@
         <v>899393</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
         <v>1717</v>
@@ -4257,13 +4242,13 @@
         <v>1786458</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,7 +4304,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4331,13 +4316,13 @@
         <v>74980</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -4346,13 +4331,13 @@
         <v>96632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
@@ -4361,13 +4346,13 @@
         <v>171612</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4367,13 @@
         <v>108823</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -4397,13 +4382,13 @@
         <v>101619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -4412,10 +4397,10 @@
         <v>210442</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>271</v>
@@ -4525,7 +4510,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4537,13 +4522,13 @@
         <v>58494</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -4552,10 +4537,10 @@
         <v>68270</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>284</v>
@@ -4567,10 +4552,10 @@
         <v>126765</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>286</v>
@@ -4761,7 +4746,7 @@
         <v>308</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>309</v>
@@ -4773,13 +4758,13 @@
         <v>440601</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>310</v>
+        <v>58</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>311</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4779,13 @@
         <v>359222</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H25" s="7">
         <v>190</v>
@@ -4809,13 +4794,13 @@
         <v>352332</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M25" s="7">
         <v>363</v>
@@ -4824,13 +4809,13 @@
         <v>711554</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4830,13 @@
         <v>2858330</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H26" s="7">
         <v>2914</v>
@@ -4860,13 +4845,13 @@
         <v>2974603</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M26" s="7">
         <v>5788</v>
@@ -4875,13 +4860,13 @@
         <v>5832933</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,7 +4922,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4958,7 +4943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F44FDE0-C317-4500-8B06-6C5D8220A33E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66380FFF-9A46-4914-9C50-ABD5A7DA005F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4975,7 +4960,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5082,13 +5067,13 @@
         <v>2778</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -5097,13 +5082,13 @@
         <v>5128</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>97</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5112,13 +5097,13 @@
         <v>7906</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>53</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,13 +5118,13 @@
         <v>9932</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5148,13 +5133,13 @@
         <v>15260</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5163,13 +5148,13 @@
         <v>25191</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5169,13 @@
         <v>103836</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H6" s="7">
         <v>100</v>
@@ -5202,10 +5187,10 @@
         <v>146</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M6" s="7">
         <v>205</v>
@@ -5214,13 +5199,13 @@
         <v>196809</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,13 +5273,13 @@
         <v>28421</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -5303,13 +5288,13 @@
         <v>28455</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -5318,13 +5303,13 @@
         <v>56875</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5324,13 @@
         <v>47650</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -5354,13 +5339,13 @@
         <v>50180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
@@ -5369,13 +5354,13 @@
         <v>97830</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>364</v>
+        <v>135</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5375,13 @@
         <v>482183</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>492</v>
@@ -5405,13 +5390,13 @@
         <v>480844</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>981</v>
@@ -5420,13 +5405,13 @@
         <v>963027</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,7 +5467,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5494,13 +5479,13 @@
         <v>80650</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H12" s="7">
         <v>72</v>
@@ -5509,13 +5494,13 @@
         <v>76737</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>138</v>
+        <v>375</v>
       </c>
       <c r="M12" s="7">
         <v>132</v>
@@ -5524,13 +5509,13 @@
         <v>157388</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5530,13 @@
         <v>90179</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -5560,10 +5545,10 @@
         <v>105778</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>383</v>
@@ -5575,13 +5560,13 @@
         <v>195957</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>238</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,13 +5581,13 @@
         <v>851602</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>843</v>
@@ -5611,13 +5596,13 @@
         <v>860397</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>1682</v>
@@ -5626,13 +5611,13 @@
         <v>1711999</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,7 +5673,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5700,13 +5685,13 @@
         <v>43888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -5715,13 +5700,13 @@
         <v>62488</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>88</v>
@@ -5730,13 +5715,13 @@
         <v>106376</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,10 +5736,10 @@
         <v>75557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>403</v>
@@ -5769,7 +5754,7 @@
         <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>405</v>
@@ -5784,10 +5769,10 @@
         <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5787,13 @@
         <v>640107</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H18" s="7">
         <v>647</v>
@@ -5817,13 +5802,13 @@
         <v>666635</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M18" s="7">
         <v>1267</v>
@@ -5832,13 +5817,13 @@
         <v>1306742</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,7 +5879,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5906,13 +5891,13 @@
         <v>52898</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>418</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>419</v>
+        <v>73</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -5921,13 +5906,13 @@
         <v>58680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>94</v>
@@ -5936,13 +5921,13 @@
         <v>111578</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5942,13 @@
         <v>92429</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="H21" s="7">
         <v>57</v>
@@ -5972,13 +5957,13 @@
         <v>98998</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>314</v>
+        <v>428</v>
       </c>
       <c r="M21" s="7">
         <v>115</v>
@@ -5987,10 +5972,10 @@
         <v>191427</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>429</v>
+        <v>246</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>430</v>
@@ -6041,10 +6026,10 @@
         <v>437</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6097,13 @@
         <v>208635</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>441</v>
+        <v>131</v>
       </c>
       <c r="H24" s="7">
         <v>212</v>
@@ -6127,13 +6112,13 @@
         <v>231488</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>442</v>
+        <v>233</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>355</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>443</v>
+        <v>309</v>
       </c>
       <c r="M24" s="7">
         <v>370</v>
@@ -6142,13 +6127,13 @@
         <v>440123</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>285</v>
+        <v>110</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>208</v>
+        <v>442</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>311</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,10 +6148,10 @@
         <v>315746</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>445</v>
@@ -6181,10 +6166,10 @@
         <v>446</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M25" s="7">
         <v>381</v>
@@ -6193,13 +6178,13 @@
         <v>641851</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,7 +6199,7 @@
         <v>2869969</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>451</v>
@@ -6229,7 +6214,7 @@
         <v>2986949</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>453</v>
@@ -6306,7 +6291,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6327,7 +6312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68F9C4C-2147-457A-94B2-D6E5B2776729}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EFE311-96B1-4E56-A507-E158835B6C07}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6487,7 +6472,7 @@
         <v>466</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>467</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,13 +6487,13 @@
         <v>3512</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -6517,13 +6502,13 @@
         <v>5394</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>394</v>
+        <v>468</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>469</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>470</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -6532,13 +6517,13 @@
         <v>8905</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,13 +6538,13 @@
         <v>97513</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H6" s="7">
         <v>225</v>
@@ -6568,13 +6553,13 @@
         <v>124027</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M6" s="7">
         <v>333</v>
@@ -6583,13 +6568,13 @@
         <v>221540</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,13 +6642,13 @@
         <v>5428</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -6672,10 +6657,10 @@
         <v>6847</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>464</v>
@@ -6687,13 +6672,13 @@
         <v>12275</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>486</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>465</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,13 +6693,13 @@
         <v>19534</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -6723,13 +6708,13 @@
         <v>16999</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>493</v>
+        <v>73</v>
       </c>
       <c r="M9" s="7">
         <v>47</v>
@@ -6738,13 +6723,13 @@
         <v>36534</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,13 +6744,13 @@
         <v>524861</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H10" s="7">
         <v>922</v>
@@ -6774,13 +6759,13 @@
         <v>568708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M10" s="7">
         <v>1483</v>
@@ -6789,13 +6774,13 @@
         <v>1093569</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6851,7 +6836,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6863,13 +6848,13 @@
         <v>11815</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H12" s="7">
         <v>90</v>
@@ -6878,13 +6863,13 @@
         <v>14334</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="M12" s="7">
         <v>164</v>
@@ -6893,13 +6878,13 @@
         <v>26149</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6899,13 @@
         <v>39691</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -6932,10 +6917,10 @@
         <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -6944,13 +6929,13 @@
         <v>76224</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>518</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>519</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,13 +6950,13 @@
         <v>931469</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H14" s="7">
         <v>1374</v>
@@ -6980,13 +6965,13 @@
         <v>1005996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="M14" s="7">
         <v>2228</v>
@@ -6995,13 +6980,13 @@
         <v>1937464</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,7 +7042,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7069,13 +7054,13 @@
         <v>11334</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="H16" s="7">
         <v>137</v>
@@ -7084,13 +7069,13 @@
         <v>21838</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>519</v>
+        <v>335</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="M16" s="7">
         <v>208</v>
@@ -7099,13 +7084,13 @@
         <v>33171</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>535</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7120,13 +7105,13 @@
         <v>57970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>530</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -7135,13 +7120,13 @@
         <v>52398</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>537</v>
+        <v>443</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>539</v>
+        <v>133</v>
       </c>
       <c r="M17" s="7">
         <v>128</v>
@@ -7150,13 +7135,13 @@
         <v>110368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>540</v>
+        <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,13 +7156,13 @@
         <v>659468</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="H18" s="7">
         <v>831</v>
@@ -7186,13 +7171,13 @@
         <v>675974</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="M18" s="7">
         <v>1381</v>
@@ -7201,13 +7186,13 @@
         <v>1335441</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>61</v>
+        <v>541</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,7 +7248,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7275,13 +7260,13 @@
         <v>9891</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7">
         <v>94</v>
@@ -7290,13 +7275,13 @@
         <v>14965</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>486</v>
+        <v>185</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="M20" s="7">
         <v>156</v>
@@ -7305,13 +7290,13 @@
         <v>24856</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7329,10 +7314,10 @@
         <v>152</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>215</v>
+        <v>550</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H21" s="7">
         <v>97</v>
@@ -7341,10 +7326,10 @@
         <v>70350</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>558</v>
+        <v>398</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>167</v>
@@ -7356,13 +7341,13 @@
         <v>130548</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>552</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7377,13 +7362,13 @@
         <v>895314</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H22" s="7">
         <v>1365</v>
@@ -7392,13 +7377,13 @@
         <v>1035961</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="M22" s="7">
         <v>2248</v>
@@ -7407,13 +7392,13 @@
         <v>1931275</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,13 +7466,13 @@
         <v>39425</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>569</v>
+        <v>43</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>187</v>
+        <v>563</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="H24" s="7">
         <v>370</v>
@@ -7496,13 +7481,13 @@
         <v>58939</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="M24" s="7">
         <v>617</v>
@@ -7511,13 +7496,13 @@
         <v>98364</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7532,13 +7517,13 @@
         <v>180904</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
         <v>261</v>
@@ -7547,13 +7532,13 @@
         <v>181674</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="M25" s="7">
         <v>432</v>
@@ -7562,13 +7547,13 @@
         <v>362578</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7583,13 +7568,13 @@
         <v>3108625</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H26" s="7">
         <v>4717</v>
@@ -7598,13 +7583,13 @@
         <v>3410665</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="M26" s="7">
         <v>7673</v>
@@ -7613,13 +7598,13 @@
         <v>6519290</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,7 +7660,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P58-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P58-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C48A066A-40CF-4D70-A237-6060F1255717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C389194-9ED3-4C5A-9F5A-62145A270EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B8DE701F-B45B-41FF-BADF-54820A1E4AE8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E9DFBCE-DDBA-42C8-B592-5D21E4821613}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="587">
   <si>
     <t>Población según su lugar de nacimiento en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -89,16 +89,16 @@
     <t>1,26%</t>
   </si>
   <si>
-    <t>12,3%</t>
+    <t>11,15%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
   <si>
     <t>Resto de España</t>
@@ -110,7 +110,7 @@
     <t>1,67%</t>
   </si>
   <si>
-    <t>14,79%</t>
+    <t>14,2%</t>
   </si>
   <si>
     <t>2,72%</t>
@@ -119,16 +119,16 @@
     <t>0,89%</t>
   </si>
   <si>
-    <t>7,34%</t>
+    <t>7,25%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
   </si>
   <si>
     <t>Andalucia</t>
@@ -137,1663 +137,1669 @@
     <t>93,65%</t>
   </si>
   <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
     <t>85,21%</t>
   </si>
   <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2016 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2016 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>94,05%</t>
+    <t>94,04%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>92,82%</t>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
 </sst>
 </file>
@@ -2205,7 +2211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641114A4-2B14-4BC1-A039-CD50E0439BFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F0ADD9-B13D-4894-A196-BBC9AF0217E9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2601,13 +2607,13 @@
         <v>28701</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>38</v>
@@ -2616,13 +2622,13 @@
         <v>53198</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2643,13 @@
         <v>539076</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>528</v>
@@ -2652,13 +2658,13 @@
         <v>522027</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>1080</v>
@@ -2667,13 +2673,13 @@
         <v>1061102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,7 +2735,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2741,13 +2747,13 @@
         <v>54164</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
@@ -2756,13 +2762,13 @@
         <v>57957</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>67</v>
@@ -2771,10 +2777,10 @@
         <v>112120</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>77</v>
@@ -2977,13 +2983,13 @@
         <v>129306</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3004,13 @@
         <v>66152</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -3013,13 +3019,13 @@
         <v>57346</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -3028,13 +3034,13 @@
         <v>123498</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3055,13 @@
         <v>545879</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>602</v>
@@ -3064,13 +3070,13 @@
         <v>563668</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>1165</v>
@@ -3079,13 +3085,13 @@
         <v>1109546</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,7 +3147,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3153,13 +3159,13 @@
         <v>68691</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -3168,13 +3174,13 @@
         <v>73302</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>92</v>
@@ -3183,13 +3189,13 @@
         <v>141993</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3210,13 @@
         <v>105880</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
@@ -3219,13 +3225,13 @@
         <v>113456</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>163</v>
@@ -3234,13 +3240,13 @@
         <v>219336</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3261,13 @@
         <v>767651</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>855</v>
@@ -3270,13 +3276,13 @@
         <v>851855</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>1732</v>
@@ -3285,13 +3291,13 @@
         <v>1619505</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3365,13 @@
         <v>204415</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="H24" s="7">
         <v>141</v>
@@ -3374,13 +3380,13 @@
         <v>224604</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>268</v>
@@ -3389,13 +3395,13 @@
         <v>429019</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3416,13 @@
         <v>272955</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>210</v>
@@ -3425,13 +3431,13 @@
         <v>249635</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>372</v>
@@ -3440,13 +3446,13 @@
         <v>522590</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3467,13 @@
         <v>2799173</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>2938</v>
@@ -3476,13 +3482,13 @@
         <v>2904958</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>5855</v>
@@ -3491,13 +3497,13 @@
         <v>5704131</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,7 +3559,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3574,7 +3580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80389FCF-E958-4F4D-95B8-B9D70C7D3763}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BB887F-B4B4-4F72-8EA2-B2D9D4C4213E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3591,7 +3597,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3698,13 +3704,13 @@
         <v>4530</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3713,13 +3719,13 @@
         <v>2425</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3728,13 +3734,13 @@
         <v>6955</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3755,13 @@
         <v>18003</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3764,13 +3770,13 @@
         <v>6482</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -3779,13 +3785,13 @@
         <v>24485</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3806,13 @@
         <v>93232</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H6" s="7">
         <v>94</v>
@@ -3815,13 +3821,13 @@
         <v>102998</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M6" s="7">
         <v>202</v>
@@ -3830,13 +3836,13 @@
         <v>196230</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3910,13 @@
         <v>22115</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -3919,13 +3925,13 @@
         <v>16383</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -3934,13 +3940,13 @@
         <v>38497</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3961,13 @@
         <v>43647</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -3970,13 +3976,13 @@
         <v>48928</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M9" s="7">
         <v>48</v>
@@ -3985,13 +3991,13 @@
         <v>92575</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +4012,13 @@
         <v>521942</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>510</v>
@@ -4021,13 +4027,13 @@
         <v>519834</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>1024</v>
@@ -4036,13 +4042,13 @@
         <v>1041776</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,7 +4104,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4110,13 +4116,13 @@
         <v>49108</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -4125,13 +4131,13 @@
         <v>47664</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M12" s="7">
         <v>76</v>
@@ -4140,13 +4146,13 @@
         <v>96772</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4167,13 @@
         <v>81773</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -4176,13 +4182,13 @@
         <v>85127</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4191,13 +4197,13 @@
         <v>166901</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4218,13 @@
         <v>887065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
         <v>856</v>
@@ -4227,13 +4233,13 @@
         <v>899393</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
         <v>1717</v>
@@ -4242,13 +4248,13 @@
         <v>1786458</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4322,13 @@
         <v>74980</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -4331,13 +4337,13 @@
         <v>96632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
@@ -4346,13 +4352,13 @@
         <v>171612</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4373,13 @@
         <v>108823</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -4382,13 +4388,13 @@
         <v>101619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -4397,13 +4403,13 @@
         <v>210442</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4424,13 @@
         <v>573820</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H18" s="7">
         <v>571</v>
@@ -4433,13 +4439,13 @@
         <v>578923</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M18" s="7">
         <v>1150</v>
@@ -4448,13 +4454,13 @@
         <v>1152743</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,7 +4516,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4522,13 +4528,13 @@
         <v>58494</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -4537,13 +4543,13 @@
         <v>68270</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -4552,13 +4558,13 @@
         <v>126765</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>286</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4579,13 @@
         <v>106975</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H21" s="7">
         <v>61</v>
@@ -4588,13 +4594,13 @@
         <v>110176</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>292</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
@@ -4603,13 +4609,13 @@
         <v>217151</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4630,13 @@
         <v>782269</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="H22" s="7">
         <v>883</v>
@@ -4639,13 +4645,13 @@
         <v>873455</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M22" s="7">
         <v>1695</v>
@@ -4654,13 +4660,13 @@
         <v>1655724</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4734,13 @@
         <v>209227</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="H24" s="7">
         <v>194</v>
@@ -4743,13 +4749,13 @@
         <v>231374</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>299</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="M24" s="7">
         <v>356</v>
@@ -4758,13 +4764,13 @@
         <v>440601</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>58</v>
+        <v>300</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>107</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4785,13 @@
         <v>359222</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>190</v>
@@ -4794,13 +4800,13 @@
         <v>352332</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M25" s="7">
         <v>363</v>
@@ -4809,13 +4815,13 @@
         <v>711554</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4836,13 @@
         <v>2858330</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H26" s="7">
         <v>2914</v>
@@ -4845,13 +4851,13 @@
         <v>2974603</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>322</v>
+        <v>217</v>
       </c>
       <c r="M26" s="7">
         <v>5788</v>
@@ -4860,13 +4866,13 @@
         <v>5832933</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,7 +4928,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4943,7 +4949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66380FFF-9A46-4914-9C50-ABD5A7DA005F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8157619F-4E8B-4F0A-8528-62E630282553}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4960,7 +4966,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5067,13 +5073,13 @@
         <v>2778</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -5082,13 +5088,13 @@
         <v>5128</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5097,13 +5103,13 @@
         <v>7906</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5124,13 @@
         <v>9932</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5133,13 +5139,13 @@
         <v>15260</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5148,13 +5154,13 @@
         <v>25191</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5175,13 @@
         <v>103836</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H6" s="7">
         <v>100</v>
@@ -5184,13 +5190,13 @@
         <v>92973</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="M6" s="7">
         <v>205</v>
@@ -5199,13 +5205,13 @@
         <v>196809</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,13 +5279,13 @@
         <v>28421</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -5288,13 +5294,13 @@
         <v>28455</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -5303,13 +5309,13 @@
         <v>56875</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5330,13 @@
         <v>47650</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -5339,13 +5345,13 @@
         <v>50180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
@@ -5354,13 +5360,13 @@
         <v>97830</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>135</v>
+        <v>353</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>361</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5381,13 @@
         <v>482183</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>492</v>
@@ -5390,13 +5396,13 @@
         <v>480844</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>981</v>
@@ -5405,13 +5411,13 @@
         <v>963027</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,7 +5473,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5479,13 +5485,13 @@
         <v>80650</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>371</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H12" s="7">
         <v>72</v>
@@ -5494,13 +5500,13 @@
         <v>76737</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>375</v>
+        <v>285</v>
       </c>
       <c r="M12" s="7">
         <v>132</v>
@@ -5509,13 +5515,13 @@
         <v>157388</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>377</v>
+        <v>300</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5536,13 @@
         <v>90179</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>309</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -5545,13 +5551,13 @@
         <v>105778</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>371</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -5560,13 +5566,13 @@
         <v>195957</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5587,13 @@
         <v>851602</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>843</v>
@@ -5596,13 +5602,13 @@
         <v>860397</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>1682</v>
@@ -5611,13 +5617,13 @@
         <v>1711999</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5691,13 @@
         <v>43888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>203</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -5700,13 +5706,13 @@
         <v>62488</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>88</v>
@@ -5715,13 +5721,13 @@
         <v>106376</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5742,13 @@
         <v>75557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -5751,13 +5757,13 @@
         <v>55889</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -5766,13 +5772,13 @@
         <v>131445</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +5793,13 @@
         <v>640107</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="H18" s="7">
         <v>647</v>
@@ -5802,13 +5808,13 @@
         <v>666635</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="M18" s="7">
         <v>1267</v>
@@ -5817,13 +5823,13 @@
         <v>1306742</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,7 +5885,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5891,13 +5897,13 @@
         <v>52898</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>406</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>73</v>
+        <v>407</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -5906,13 +5912,13 @@
         <v>58680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>94</v>
@@ -5921,13 +5927,13 @@
         <v>111578</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>422</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5948,13 @@
         <v>92429</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="H21" s="7">
         <v>57</v>
@@ -5957,13 +5963,13 @@
         <v>98998</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="M21" s="7">
         <v>115</v>
@@ -5972,13 +5978,13 @@
         <v>191427</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>246</v>
+        <v>418</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5999,13 @@
         <v>792240</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>850</v>
@@ -6008,13 +6014,13 @@
         <v>886101</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>1682</v>
@@ -6023,13 +6029,13 @@
         <v>1678341</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>437</v>
+        <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6103,13 @@
         <v>208635</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>131</v>
+        <v>430</v>
       </c>
       <c r="H24" s="7">
         <v>212</v>
@@ -6112,13 +6118,13 @@
         <v>231488</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>233</v>
+        <v>431</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="M24" s="7">
         <v>370</v>
@@ -6127,13 +6133,13 @@
         <v>440123</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6154,13 @@
         <v>315746</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>435</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>444</v>
+        <v>238</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>194</v>
@@ -6163,13 +6169,13 @@
         <v>326105</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>381</v>
@@ -6178,13 +6184,13 @@
         <v>641851</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6205,13 @@
         <v>2869969</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H26" s="7">
         <v>2932</v>
@@ -6214,13 +6220,13 @@
         <v>2986949</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>293</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="M26" s="7">
         <v>5817</v>
@@ -6229,13 +6235,13 @@
         <v>5856918</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,7 +6297,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -6312,7 +6318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EFE311-96B1-4E56-A507-E158835B6C07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE87695-D0A5-4C9F-9A96-5587DBAEF275}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6329,7 +6335,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6436,13 +6442,13 @@
         <v>958</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -6451,13 +6457,13 @@
         <v>955</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -6466,13 +6472,13 @@
         <v>1912</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,13 +6493,13 @@
         <v>3512</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>467</v>
+        <v>43</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>369</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -6502,13 +6508,13 @@
         <v>5394</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>460</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -6517,13 +6523,13 @@
         <v>8905</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,13 +6544,13 @@
         <v>97513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="H6" s="7">
         <v>225</v>
@@ -6553,13 +6559,13 @@
         <v>124027</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>468</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M6" s="7">
         <v>333</v>
@@ -6568,13 +6574,13 @@
         <v>221540</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6648,13 @@
         <v>5428</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -6657,13 +6663,13 @@
         <v>6847</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -6672,13 +6678,13 @@
         <v>12275</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>479</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,13 +6699,13 @@
         <v>19534</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>488</v>
+        <v>182</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -6708,13 +6714,13 @@
         <v>16999</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>73</v>
+        <v>384</v>
       </c>
       <c r="M9" s="7">
         <v>47</v>
@@ -6723,13 +6729,13 @@
         <v>36534</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>493</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,13 +6750,13 @@
         <v>524861</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="H10" s="7">
         <v>922</v>
@@ -6759,13 +6765,13 @@
         <v>568708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="M10" s="7">
         <v>1483</v>
@@ -6774,13 +6780,13 @@
         <v>1093569</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,7 +6842,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6848,13 +6854,13 @@
         <v>11815</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>503</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="H12" s="7">
         <v>90</v>
@@ -6863,13 +6869,13 @@
         <v>14334</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="M12" s="7">
         <v>164</v>
@@ -6878,13 +6884,13 @@
         <v>26149</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,13 +6905,13 @@
         <v>39691</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -6917,10 +6923,10 @@
         <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>514</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>505</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -6929,13 +6935,13 @@
         <v>76224</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>238</v>
+        <v>506</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>335</v>
+        <v>507</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,13 +6956,13 @@
         <v>931469</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H14" s="7">
         <v>1374</v>
@@ -6965,13 +6971,13 @@
         <v>1005996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="M14" s="7">
         <v>2228</v>
@@ -6980,13 +6986,13 @@
         <v>1937464</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,13 +7060,13 @@
         <v>11334</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>503</v>
+        <v>43</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H16" s="7">
         <v>137</v>
@@ -7069,13 +7075,13 @@
         <v>21838</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>335</v>
+        <v>519</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>527</v>
+        <v>48</v>
       </c>
       <c r="M16" s="7">
         <v>208</v>
@@ -7084,13 +7090,13 @@
         <v>33171</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>46</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,13 +7111,13 @@
         <v>57970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>525</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -7120,13 +7126,13 @@
         <v>52398</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>443</v>
+        <v>527</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>133</v>
+        <v>529</v>
       </c>
       <c r="M17" s="7">
         <v>128</v>
@@ -7135,13 +7141,13 @@
         <v>110368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>55</v>
+        <v>530</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>533</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,13 +7162,13 @@
         <v>659468</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H18" s="7">
         <v>831</v>
@@ -7171,13 +7177,13 @@
         <v>675974</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M18" s="7">
         <v>1381</v>
@@ -7186,13 +7192,13 @@
         <v>1335441</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>542</v>
+        <v>194</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,7 +7254,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7260,13 +7266,13 @@
         <v>9891</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H20" s="7">
         <v>94</v>
@@ -7275,13 +7281,13 @@
         <v>14965</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>185</v>
+        <v>544</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M20" s="7">
         <v>156</v>
@@ -7290,13 +7296,13 @@
         <v>24856</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,13 +7317,13 @@
         <v>60198</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>551</v>
+        <v>386</v>
       </c>
       <c r="H21" s="7">
         <v>97</v>
@@ -7326,13 +7332,13 @@
         <v>70350</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>398</v>
+        <v>550</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>350</v>
+        <v>551</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>167</v>
+        <v>552</v>
       </c>
       <c r="M21" s="7">
         <v>158</v>
@@ -7341,13 +7347,13 @@
         <v>130548</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7362,13 +7368,13 @@
         <v>895314</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H22" s="7">
         <v>1365</v>
@@ -7377,13 +7383,13 @@
         <v>1035961</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>474</v>
+        <v>560</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M22" s="7">
         <v>2248</v>
@@ -7392,13 +7398,13 @@
         <v>1931275</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,13 +7472,13 @@
         <v>39425</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>43</v>
+        <v>565</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>564</v>
+        <v>475</v>
       </c>
       <c r="H24" s="7">
         <v>370</v>
@@ -7481,13 +7487,13 @@
         <v>58939</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M24" s="7">
         <v>617</v>
@@ -7496,13 +7502,13 @@
         <v>98364</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7517,13 +7523,13 @@
         <v>180904</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>56</v>
+        <v>574</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>351</v>
       </c>
       <c r="H25" s="7">
         <v>261</v>
@@ -7532,13 +7538,13 @@
         <v>181674</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="M25" s="7">
         <v>432</v>
@@ -7547,13 +7553,13 @@
         <v>362578</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>575</v>
+        <v>50</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>577</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7568,13 +7574,13 @@
         <v>3108625</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H26" s="7">
         <v>4717</v>
@@ -7583,13 +7589,13 @@
         <v>3410665</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M26" s="7">
         <v>7673</v>
@@ -7598,13 +7604,13 @@
         <v>6519290</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>519</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,7 +7666,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P58-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P58-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C389194-9ED3-4C5A-9F5A-62145A270EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35D8985E-64AC-4FEF-B05B-913DFDBA09E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E9DFBCE-DDBA-42C8-B592-5D21E4821613}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{185B50A0-C181-4006-A5FE-5A8266AA2CBF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="493">
   <si>
     <t>Población según su lugar de nacimiento en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -68,1738 +68,1456 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Extranjero</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>Resto de España</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>Andalucia</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2016 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>Resto de España</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>Andalucia</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2016 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
 </sst>
 </file>
@@ -2211,8 +1929,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F0ADD9-B13D-4894-A196-BBC9AF0217E9}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A160F887-784E-45C0-9147-02C427238B86}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2329,10 +2047,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>15082</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2344,10 +2062,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>5650</v>
+        <v>30518</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2359,10 +2077,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="N4" s="7">
-        <v>5650</v>
+        <v>45600</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2380,10 +2098,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>7325</v>
+        <v>31821</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2395,10 +2113,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>3063</v>
+        <v>31764</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2410,10 +2128,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="N5" s="7">
-        <v>10388</v>
+        <v>63585</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2431,10 +2149,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>101</v>
+        <v>653</v>
       </c>
       <c r="D6" s="7">
-        <v>108033</v>
+        <v>647109</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2446,10 +2164,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>121</v>
+        <v>649</v>
       </c>
       <c r="I6" s="7">
-        <v>104042</v>
+        <v>626069</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2461,10 +2179,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>222</v>
+        <v>1302</v>
       </c>
       <c r="N6" s="7">
-        <v>212075</v>
+        <v>1273178</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2482,10 +2200,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>680</v>
       </c>
       <c r="D7" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2497,10 +2215,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>695</v>
       </c>
       <c r="I7" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2512,10 +2230,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>1375</v>
       </c>
       <c r="N7" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2535,10 +2253,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7">
-        <v>15082</v>
+        <v>54164</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2550,10 +2268,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I8" s="7">
-        <v>24868</v>
+        <v>57957</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2565,19 +2283,19 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="N8" s="7">
-        <v>39950</v>
+        <v>112120</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,49 +2304,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7">
-        <v>24496</v>
+        <v>69101</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>38</v>
+      </c>
+      <c r="I9" s="7">
+        <v>47070</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="7">
-        <v>24</v>
-      </c>
-      <c r="I9" s="7">
-        <v>28701</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>76</v>
+      </c>
+      <c r="N9" s="7">
+        <v>116171</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="7">
-        <v>38</v>
-      </c>
-      <c r="N9" s="7">
-        <v>53198</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,49 +2355,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>552</v>
+        <v>824</v>
       </c>
       <c r="D10" s="7">
-        <v>539076</v>
+        <v>838535</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>832</v>
+      </c>
+      <c r="I10" s="7">
+        <v>863367</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="7">
-        <v>528</v>
-      </c>
-      <c r="I10" s="7">
-        <v>522027</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1656</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1701902</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="7">
-        <v>1080</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1061102</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>575</v>
+        <v>894</v>
       </c>
       <c r="D11" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2703,10 +2421,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>567</v>
+        <v>905</v>
       </c>
       <c r="I11" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2718,10 +2436,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1142</v>
+        <v>1799</v>
       </c>
       <c r="N11" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2735,52 +2453,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D12" s="7">
-        <v>54164</v>
+        <v>66478</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>41</v>
+      </c>
+      <c r="I12" s="7">
+        <v>62827</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="7">
-        <v>35</v>
-      </c>
-      <c r="I12" s="7">
-        <v>57957</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>81</v>
+      </c>
+      <c r="N12" s="7">
+        <v>129306</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="7">
-        <v>67</v>
-      </c>
-      <c r="N12" s="7">
-        <v>112120</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>77</v>
@@ -2795,7 +2513,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>69101</v>
+        <v>66152</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>78</v>
@@ -2807,10 +2525,10 @@
         <v>80</v>
       </c>
       <c r="H13" s="7">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>47070</v>
+        <v>57346</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>81</v>
@@ -2822,10 +2540,10 @@
         <v>83</v>
       </c>
       <c r="M13" s="7">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="N13" s="7">
-        <v>116171</v>
+        <v>123498</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>84</v>
@@ -2843,10 +2561,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>824</v>
+        <v>563</v>
       </c>
       <c r="D14" s="7">
-        <v>838535</v>
+        <v>545879</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>87</v>
@@ -2858,10 +2576,10 @@
         <v>89</v>
       </c>
       <c r="H14" s="7">
-        <v>832</v>
+        <v>602</v>
       </c>
       <c r="I14" s="7">
-        <v>863367</v>
+        <v>563668</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
@@ -2873,10 +2591,10 @@
         <v>92</v>
       </c>
       <c r="M14" s="7">
-        <v>1656</v>
+        <v>1165</v>
       </c>
       <c r="N14" s="7">
-        <v>1701902</v>
+        <v>1109546</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>93</v>
@@ -2894,10 +2612,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>894</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -2909,10 +2627,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>905</v>
+        <v>693</v>
       </c>
       <c r="I15" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2924,10 +2642,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1799</v>
+        <v>1334</v>
       </c>
       <c r="N15" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2947,10 +2665,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7">
-        <v>66478</v>
+        <v>68691</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
@@ -2962,10 +2680,10 @@
         <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I16" s="7">
-        <v>62827</v>
+        <v>73302</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>100</v>
@@ -2977,19 +2695,19 @@
         <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="N16" s="7">
-        <v>129306</v>
+        <v>141993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,40 +2716,40 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D17" s="7">
-        <v>66152</v>
+        <v>105880</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="I17" s="7">
-        <v>57346</v>
+        <v>113456</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>110</v>
       </c>
       <c r="M17" s="7">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="N17" s="7">
-        <v>123498</v>
+        <v>219336</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>111</v>
@@ -3049,10 +2767,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>563</v>
+        <v>877</v>
       </c>
       <c r="D18" s="7">
-        <v>545879</v>
+        <v>767651</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>114</v>
@@ -3064,10 +2782,10 @@
         <v>116</v>
       </c>
       <c r="H18" s="7">
-        <v>602</v>
+        <v>855</v>
       </c>
       <c r="I18" s="7">
-        <v>563668</v>
+        <v>851855</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>117</v>
@@ -3076,22 +2794,22 @@
         <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1732</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1619505</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M18" s="7">
-        <v>1165</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1109546</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,10 +2818,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>641</v>
+        <v>991</v>
       </c>
       <c r="D19" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -3115,10 +2833,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>693</v>
+        <v>996</v>
       </c>
       <c r="I19" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3130,10 +2848,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1334</v>
+        <v>1987</v>
       </c>
       <c r="N19" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -3147,55 +2865,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="D20" s="7">
-        <v>68691</v>
+        <v>204415</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="7">
+        <v>141</v>
+      </c>
+      <c r="I20" s="7">
+        <v>224604</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>268</v>
+      </c>
+      <c r="N20" s="7">
+        <v>429019</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="7">
-        <v>46</v>
-      </c>
-      <c r="I20" s="7">
-        <v>73302</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M20" s="7">
-        <v>92</v>
-      </c>
-      <c r="N20" s="7">
-        <v>141993</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,49 +2922,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="D21" s="7">
-        <v>105880</v>
+        <v>272955</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="7">
+        <v>210</v>
+      </c>
+      <c r="I21" s="7">
+        <v>249635</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>372</v>
+      </c>
+      <c r="N21" s="7">
+        <v>522590</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="P21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="H21" s="7">
-        <v>95</v>
-      </c>
-      <c r="I21" s="7">
-        <v>113456</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" s="7">
-        <v>163</v>
-      </c>
-      <c r="N21" s="7">
-        <v>219336</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,49 +2973,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>877</v>
+        <v>2917</v>
       </c>
       <c r="D22" s="7">
-        <v>767651</v>
+        <v>2799173</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2938</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2904958</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>5855</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5704131</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="7">
-        <v>855</v>
-      </c>
-      <c r="I22" s="7">
-        <v>851855</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1732</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1619505</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,10 +3024,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>991</v>
+        <v>3206</v>
       </c>
       <c r="D23" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3321,10 +3039,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>996</v>
+        <v>3289</v>
       </c>
       <c r="I23" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3336,10 +3054,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1987</v>
+        <v>6495</v>
       </c>
       <c r="N23" s="7">
-        <v>1980834</v>
+        <v>6655740</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3352,222 +3070,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>127</v>
-      </c>
-      <c r="D24" s="7">
-        <v>204415</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="7">
-        <v>141</v>
-      </c>
-      <c r="I24" s="7">
-        <v>224604</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M24" s="7">
-        <v>268</v>
-      </c>
-      <c r="N24" s="7">
-        <v>429019</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>162</v>
-      </c>
-      <c r="D25" s="7">
-        <v>272955</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" s="7">
-        <v>210</v>
-      </c>
-      <c r="I25" s="7">
-        <v>249635</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M25" s="7">
-        <v>372</v>
-      </c>
-      <c r="N25" s="7">
-        <v>522590</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2917</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2799173</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2938</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2904958</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M26" s="7">
-        <v>5855</v>
-      </c>
-      <c r="N26" s="7">
-        <v>5704131</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3206</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3276543</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3289</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3379197</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6495</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>173</v>
+      <c r="A24" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3580,8 +3091,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BB887F-B4B4-4F72-8EA2-B2D9D4C4213E}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8FB540-1418-4D03-9402-EF966B26F638}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3597,7 +3108,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3698,49 +3209,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>4530</v>
+        <v>26645</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>2425</v>
+        <v>18808</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>6955</v>
+        <v>45453</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,49 +3260,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>18003</v>
+        <v>61650</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7">
-        <v>6482</v>
+        <v>55410</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="N5" s="7">
-        <v>24485</v>
+        <v>117060</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,49 +3311,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>108</v>
+        <v>622</v>
       </c>
       <c r="D6" s="7">
-        <v>93232</v>
+        <v>615174</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="H6" s="7">
-        <v>94</v>
+        <v>604</v>
       </c>
       <c r="I6" s="7">
-        <v>102998</v>
+        <v>622832</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="M6" s="7">
-        <v>202</v>
+        <v>1226</v>
       </c>
       <c r="N6" s="7">
-        <v>196230</v>
+        <v>1238006</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,10 +3362,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D7" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3866,10 +3377,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3881,10 +3392,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N7" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3904,49 +3415,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
-        <v>22115</v>
+        <v>49108</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I8" s="7">
-        <v>16383</v>
+        <v>47664</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="N8" s="7">
-        <v>38497</v>
+        <v>96772</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,49 +3466,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7">
-        <v>43647</v>
+        <v>81773</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="H9" s="7">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I9" s="7">
-        <v>48928</v>
+        <v>85127</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="M9" s="7">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="N9" s="7">
-        <v>92575</v>
+        <v>166901</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,49 +3517,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>514</v>
+        <v>861</v>
       </c>
       <c r="D10" s="7">
-        <v>521942</v>
+        <v>887065</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
-        <v>510</v>
+        <v>856</v>
       </c>
       <c r="I10" s="7">
-        <v>519834</v>
+        <v>899393</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
-        <v>1024</v>
+        <v>1717</v>
       </c>
       <c r="N10" s="7">
-        <v>1041776</v>
+        <v>1786458</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,10 +3568,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D11" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4072,10 +3583,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I11" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4087,10 +3598,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N11" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4104,55 +3615,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7">
-        <v>49108</v>
+        <v>74980</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="H12" s="7">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="I12" s="7">
-        <v>47664</v>
+        <v>96632</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="M12" s="7">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="N12" s="7">
-        <v>96772</v>
+        <v>171612</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,49 +3672,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>81773</v>
+        <v>108823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>85127</v>
+        <v>101619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="N13" s="7">
-        <v>166901</v>
+        <v>210442</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,49 +3723,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>861</v>
+        <v>579</v>
       </c>
       <c r="D14" s="7">
-        <v>887065</v>
+        <v>573820</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
-        <v>856</v>
+        <v>571</v>
       </c>
       <c r="I14" s="7">
-        <v>899393</v>
+        <v>578923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
-        <v>1717</v>
+        <v>1150</v>
       </c>
       <c r="N14" s="7">
-        <v>1786458</v>
+        <v>1152743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,10 +3774,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4278,10 +3789,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I15" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4293,10 +3804,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N15" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4316,49 +3827,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7">
-        <v>74980</v>
+        <v>58494</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>96632</v>
+        <v>68270</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="N16" s="7">
-        <v>171612</v>
+        <v>126765</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,46 +3881,46 @@
         <v>52</v>
       </c>
       <c r="D17" s="7">
-        <v>108823</v>
+        <v>106975</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I17" s="7">
-        <v>101619</v>
+        <v>110176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="N17" s="7">
-        <v>210442</v>
+        <v>217151</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,49 +3929,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>579</v>
+        <v>812</v>
       </c>
       <c r="D18" s="7">
-        <v>573820</v>
+        <v>782269</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="H18" s="7">
-        <v>571</v>
+        <v>883</v>
       </c>
       <c r="I18" s="7">
-        <v>578923</v>
+        <v>873455</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="M18" s="7">
-        <v>1150</v>
+        <v>1695</v>
       </c>
       <c r="N18" s="7">
-        <v>1152743</v>
+        <v>1655724</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,10 +3980,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D19" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4484,10 +3995,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I19" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4499,10 +4010,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N19" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4516,55 +4027,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="D20" s="7">
-        <v>58494</v>
+        <v>209227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="H20" s="7">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="I20" s="7">
-        <v>68270</v>
+        <v>231374</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="M20" s="7">
-        <v>105</v>
+        <v>356</v>
       </c>
       <c r="N20" s="7">
-        <v>126765</v>
+        <v>440601</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,49 +4084,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="D21" s="7">
-        <v>106975</v>
+        <v>359222</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>282</v>
+        <v>157</v>
       </c>
       <c r="H21" s="7">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="I21" s="7">
-        <v>110176</v>
+        <v>352332</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="M21" s="7">
-        <v>113</v>
+        <v>363</v>
       </c>
       <c r="N21" s="7">
-        <v>217151</v>
+        <v>711554</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,49 +4135,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>812</v>
+        <v>2874</v>
       </c>
       <c r="D22" s="7">
-        <v>782269</v>
+        <v>2858330</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="H22" s="7">
-        <v>883</v>
+        <v>2914</v>
       </c>
       <c r="I22" s="7">
-        <v>873455</v>
+        <v>2974603</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="M22" s="7">
-        <v>1695</v>
+        <v>5788</v>
       </c>
       <c r="N22" s="7">
-        <v>1655724</v>
+        <v>5832933</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,10 +4186,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D23" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4690,10 +4201,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I23" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4705,10 +4216,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N23" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4721,222 +4232,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>162</v>
-      </c>
-      <c r="D24" s="7">
-        <v>209227</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H24" s="7">
-        <v>194</v>
-      </c>
-      <c r="I24" s="7">
-        <v>231374</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M24" s="7">
-        <v>356</v>
-      </c>
-      <c r="N24" s="7">
-        <v>440601</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>173</v>
-      </c>
-      <c r="D25" s="7">
-        <v>359222</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H25" s="7">
-        <v>190</v>
-      </c>
-      <c r="I25" s="7">
-        <v>352332</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="M25" s="7">
-        <v>363</v>
-      </c>
-      <c r="N25" s="7">
-        <v>711554</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2874</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2858330</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2914</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2974603</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M26" s="7">
-        <v>5788</v>
-      </c>
-      <c r="N26" s="7">
-        <v>5832933</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>173</v>
+      <c r="A24" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4949,8 +4253,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8157619F-4E8B-4F0A-8528-62E630282553}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E38448-6663-4699-8C40-10E9F87ABE62}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4966,7 +4270,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5067,49 +4371,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>2778</v>
+        <v>31199</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>5128</v>
+        <v>33583</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="N4" s="7">
-        <v>7906</v>
+        <v>64781</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,49 +4422,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7">
-        <v>9932</v>
+        <v>57582</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="I5" s="7">
-        <v>15260</v>
+        <v>65440</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="N5" s="7">
-        <v>25191</v>
+        <v>123022</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,49 +4473,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>594</v>
       </c>
       <c r="D6" s="7">
-        <v>103836</v>
+        <v>586020</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="H6" s="7">
-        <v>100</v>
+        <v>592</v>
       </c>
       <c r="I6" s="7">
-        <v>92973</v>
+        <v>573816</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="M6" s="7">
-        <v>205</v>
+        <v>1186</v>
       </c>
       <c r="N6" s="7">
-        <v>196809</v>
+        <v>1159836</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,10 +4524,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D7" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -5235,10 +4539,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5250,10 +4554,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N7" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5273,49 +4577,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7">
-        <v>28421</v>
+        <v>80650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I8" s="7">
-        <v>28455</v>
+        <v>76737</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="N8" s="7">
-        <v>56875</v>
+        <v>157388</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>345</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,49 +4628,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D9" s="7">
-        <v>47650</v>
+        <v>90179</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>349</v>
+        <v>259</v>
       </c>
       <c r="H9" s="7">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>50180</v>
+        <v>105778</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="M9" s="7">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="N9" s="7">
-        <v>97830</v>
+        <v>195957</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>353</v>
+        <v>75</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,49 +4679,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>489</v>
+        <v>839</v>
       </c>
       <c r="D10" s="7">
-        <v>482183</v>
+        <v>851602</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
-        <v>492</v>
+        <v>843</v>
       </c>
       <c r="I10" s="7">
-        <v>480844</v>
+        <v>860397</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
-        <v>981</v>
+        <v>1682</v>
       </c>
       <c r="N10" s="7">
-        <v>963027</v>
+        <v>1711999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,10 +4730,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D11" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5441,10 +4745,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I11" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5456,10 +4760,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N11" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5473,55 +4777,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7">
-        <v>80650</v>
+        <v>43888</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>316</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="H12" s="7">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I12" s="7">
-        <v>76737</v>
+        <v>62488</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="M12" s="7">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="N12" s="7">
-        <v>157388</v>
+        <v>106376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>300</v>
+        <v>159</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,49 +4834,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7">
-        <v>90179</v>
+        <v>75557</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>105778</v>
+        <v>55889</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>130</v>
       </c>
       <c r="M13" s="7">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="N13" s="7">
-        <v>195957</v>
+        <v>131445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>29</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,49 +4885,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>839</v>
+        <v>620</v>
       </c>
       <c r="D14" s="7">
-        <v>851602</v>
+        <v>640107</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
-        <v>843</v>
+        <v>647</v>
       </c>
       <c r="I14" s="7">
-        <v>860397</v>
+        <v>666635</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
-        <v>1682</v>
+        <v>1267</v>
       </c>
       <c r="N14" s="7">
-        <v>1711999</v>
+        <v>1306742</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,10 +4936,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>951</v>
+        <v>695</v>
       </c>
       <c r="D15" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5647,10 +4951,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I15" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5662,10 +4966,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1928</v>
+        <v>1431</v>
       </c>
       <c r="N15" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5685,49 +4989,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7">
-        <v>43888</v>
+        <v>52898</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>203</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I16" s="7">
-        <v>62488</v>
+        <v>58680</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N16" s="7">
-        <v>106376</v>
+        <v>111578</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,49 +5040,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7">
-        <v>75557</v>
+        <v>92429</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I17" s="7">
-        <v>55889</v>
+        <v>98998</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>54</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>349</v>
       </c>
       <c r="M17" s="7">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="N17" s="7">
-        <v>131445</v>
+        <v>191427</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,49 +5091,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>620</v>
+        <v>832</v>
       </c>
       <c r="D18" s="7">
-        <v>640107</v>
+        <v>792240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="H18" s="7">
-        <v>647</v>
+        <v>850</v>
       </c>
       <c r="I18" s="7">
-        <v>666635</v>
+        <v>886101</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="M18" s="7">
-        <v>1267</v>
+        <v>1682</v>
       </c>
       <c r="N18" s="7">
-        <v>1306742</v>
+        <v>1678341</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>403</v>
+        <v>314</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,10 +5142,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>695</v>
+        <v>932</v>
       </c>
       <c r="D19" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5853,10 +5157,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I19" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5868,10 +5172,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1431</v>
+        <v>1891</v>
       </c>
       <c r="N19" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5885,55 +5189,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="D20" s="7">
-        <v>52898</v>
+        <v>208635</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H20" s="7">
+        <v>212</v>
+      </c>
+      <c r="I20" s="7">
+        <v>231488</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M20" s="7">
+        <v>370</v>
+      </c>
+      <c r="N20" s="7">
+        <v>440123</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="H20" s="7">
-        <v>52</v>
-      </c>
-      <c r="I20" s="7">
-        <v>58680</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M20" s="7">
-        <v>94</v>
-      </c>
-      <c r="N20" s="7">
-        <v>111578</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,49 +5246,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="D21" s="7">
-        <v>92429</v>
+        <v>315746</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>411</v>
+        <v>368</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>412</v>
+        <v>188</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="H21" s="7">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="I21" s="7">
-        <v>98998</v>
+        <v>326105</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="M21" s="7">
-        <v>115</v>
+        <v>381</v>
       </c>
       <c r="N21" s="7">
-        <v>191427</v>
+        <v>641851</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,49 +5297,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>832</v>
+        <v>2885</v>
       </c>
       <c r="D22" s="7">
-        <v>792240</v>
+        <v>2869969</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>168</v>
       </c>
       <c r="H22" s="7">
-        <v>850</v>
+        <v>2932</v>
       </c>
       <c r="I22" s="7">
-        <v>886101</v>
+        <v>2986949</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>330</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>245</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="M22" s="7">
-        <v>1682</v>
+        <v>5817</v>
       </c>
       <c r="N22" s="7">
-        <v>1678341</v>
+        <v>5856918</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,10 +5348,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>932</v>
+        <v>3230</v>
       </c>
       <c r="D23" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -6059,10 +5363,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I23" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6074,10 +5378,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1891</v>
+        <v>6568</v>
       </c>
       <c r="N23" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6090,222 +5394,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>158</v>
-      </c>
-      <c r="D24" s="7">
-        <v>208635</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H24" s="7">
-        <v>212</v>
-      </c>
-      <c r="I24" s="7">
-        <v>231488</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M24" s="7">
-        <v>370</v>
-      </c>
-      <c r="N24" s="7">
-        <v>440123</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>187</v>
-      </c>
-      <c r="D25" s="7">
-        <v>315746</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H25" s="7">
-        <v>194</v>
-      </c>
-      <c r="I25" s="7">
-        <v>326105</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="M25" s="7">
-        <v>381</v>
-      </c>
-      <c r="N25" s="7">
-        <v>641851</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2885</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2869969</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2932</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2986949</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="M26" s="7">
-        <v>5817</v>
-      </c>
-      <c r="N26" s="7">
-        <v>5856918</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3230</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6568</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>173</v>
+      <c r="A24" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6318,8 +5415,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE87695-D0A5-4C9F-9A96-5587DBAEF275}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907E29E9-EF05-494E-9661-7D6A3861D091}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6335,7 +5432,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6436,49 +5533,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7">
-        <v>958</v>
+        <v>6610</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>450</v>
+        <v>382</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>451</v>
+        <v>383</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>452</v>
+        <v>384</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="I4" s="7">
-        <v>955</v>
+        <v>7951</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>453</v>
+        <v>385</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="N4" s="7">
-        <v>1912</v>
+        <v>14561</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>456</v>
+        <v>388</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>457</v>
+        <v>389</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,49 +5584,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>3512</v>
+        <v>23598</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>391</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I5" s="7">
-        <v>5394</v>
+        <v>21848</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>458</v>
+        <v>392</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>460</v>
+        <v>394</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>8905</v>
+        <v>45446</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>462</v>
+        <v>395</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>463</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,49 +5635,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>108</v>
+        <v>669</v>
       </c>
       <c r="D6" s="7">
-        <v>97513</v>
+        <v>605232</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>464</v>
+        <v>396</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>465</v>
+        <v>397</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>466</v>
+        <v>398</v>
       </c>
       <c r="H6" s="7">
-        <v>225</v>
+        <v>1147</v>
       </c>
       <c r="I6" s="7">
-        <v>124027</v>
+        <v>645241</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>467</v>
+        <v>399</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>468</v>
+        <v>400</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>469</v>
+        <v>401</v>
       </c>
       <c r="M6" s="7">
-        <v>333</v>
+        <v>1816</v>
       </c>
       <c r="N6" s="7">
-        <v>221540</v>
+        <v>1250474</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>470</v>
+        <v>402</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>471</v>
+        <v>403</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>472</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,10 +5686,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -6604,10 +5701,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>242</v>
+        <v>1237</v>
       </c>
       <c r="I7" s="7">
-        <v>130376</v>
+        <v>675040</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -6619,10 +5716,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>360</v>
+        <v>1967</v>
       </c>
       <c r="N7" s="7">
-        <v>232358</v>
+        <v>1310481</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -6642,49 +5739,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D8" s="7">
-        <v>5428</v>
+        <v>12065</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>474</v>
+        <v>406</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>475</v>
+        <v>407</v>
       </c>
       <c r="H8" s="7">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="I8" s="7">
-        <v>6847</v>
+        <v>14539</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>476</v>
+        <v>387</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>477</v>
+        <v>408</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>478</v>
+        <v>409</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="N8" s="7">
-        <v>12275</v>
+        <v>26604</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>479</v>
+        <v>410</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>480</v>
+        <v>411</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>475</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,49 +5790,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7">
-        <v>19534</v>
+        <v>39676</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>481</v>
+        <v>412</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>482</v>
+        <v>413</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>182</v>
+        <v>414</v>
       </c>
       <c r="H9" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I9" s="7">
-        <v>16999</v>
+        <v>33849</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>483</v>
+        <v>415</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>484</v>
+        <v>416</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="M9" s="7">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="N9" s="7">
-        <v>36534</v>
+        <v>73526</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>74</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,49 +5841,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>561</v>
+        <v>854</v>
       </c>
       <c r="D10" s="7">
-        <v>524861</v>
+        <v>887481</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>487</v>
+        <v>421</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>488</v>
+        <v>422</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="H10" s="7">
-        <v>922</v>
+        <v>1374</v>
       </c>
       <c r="I10" s="7">
-        <v>568708</v>
+        <v>907271</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>489</v>
+        <v>424</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>490</v>
+        <v>425</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>491</v>
+        <v>426</v>
       </c>
       <c r="M10" s="7">
-        <v>1483</v>
+        <v>2228</v>
       </c>
       <c r="N10" s="7">
-        <v>1093569</v>
+        <v>1794752</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>492</v>
+        <v>427</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>493</v>
+        <v>425</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>494</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6795,10 +5892,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>612</v>
+        <v>962</v>
       </c>
       <c r="D11" s="7">
-        <v>549823</v>
+        <v>939223</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -6810,10 +5907,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>995</v>
+        <v>1514</v>
       </c>
       <c r="I11" s="7">
-        <v>592555</v>
+        <v>955659</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -6825,10 +5922,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1607</v>
+        <v>2476</v>
       </c>
       <c r="N11" s="7">
-        <v>1142378</v>
+        <v>1894882</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -6842,55 +5939,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D12" s="7">
-        <v>11815</v>
+        <v>11717</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>429</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>495</v>
+        <v>405</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>496</v>
+        <v>430</v>
       </c>
       <c r="H12" s="7">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="I12" s="7">
-        <v>14334</v>
+        <v>22280</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>498</v>
+        <v>432</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>499</v>
+        <v>433</v>
       </c>
       <c r="M12" s="7">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="N12" s="7">
-        <v>26149</v>
+        <v>33998</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>500</v>
+        <v>434</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>498</v>
+        <v>435</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>501</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,49 +5996,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D13" s="7">
-        <v>39691</v>
+        <v>57486</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>502</v>
+        <v>437</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>503</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="H13" s="7">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I13" s="7">
-        <v>36534</v>
+        <v>49309</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>439</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>505</v>
+        <v>440</v>
       </c>
       <c r="M13" s="7">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="N13" s="7">
-        <v>76224</v>
+        <v>106795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>506</v>
+        <v>441</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>507</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>508</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,49 +6047,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>854</v>
+        <v>550</v>
       </c>
       <c r="D14" s="7">
-        <v>931469</v>
+        <v>635476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>509</v>
+        <v>442</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>510</v>
+        <v>443</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="H14" s="7">
-        <v>1374</v>
+        <v>831</v>
       </c>
       <c r="I14" s="7">
-        <v>1005996</v>
+        <v>620845</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>512</v>
+        <v>445</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>514</v>
+        <v>447</v>
       </c>
       <c r="M14" s="7">
-        <v>2228</v>
+        <v>1381</v>
       </c>
       <c r="N14" s="7">
-        <v>1937464</v>
+        <v>1256322</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>516</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>492</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7001,10 +6098,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>962</v>
+        <v>676</v>
       </c>
       <c r="D15" s="7">
-        <v>982974</v>
+        <v>704680</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -7016,10 +6113,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1514</v>
+        <v>1041</v>
       </c>
       <c r="I15" s="7">
-        <v>1056863</v>
+        <v>692434</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -7031,10 +6128,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2476</v>
+        <v>1717</v>
       </c>
       <c r="N15" s="7">
-        <v>2039837</v>
+        <v>1397115</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -7054,49 +6151,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7">
-        <v>11334</v>
+        <v>10109</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>517</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>43</v>
+        <v>386</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>518</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="I16" s="7">
-        <v>21838</v>
+        <v>15114</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>519</v>
+        <v>451</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>520</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>48</v>
+        <v>452</v>
       </c>
       <c r="M16" s="7">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="N16" s="7">
-        <v>33171</v>
+        <v>25223</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>521</v>
+        <v>453</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>523</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,49 +6202,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D17" s="7">
-        <v>57970</v>
+        <v>58642</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>524</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>525</v>
+        <v>455</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>526</v>
+        <v>456</v>
       </c>
       <c r="H17" s="7">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="I17" s="7">
-        <v>52398</v>
+        <v>65209</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>527</v>
+        <v>457</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>528</v>
+        <v>458</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>529</v>
+        <v>459</v>
       </c>
       <c r="M17" s="7">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="N17" s="7">
-        <v>110368</v>
+        <v>123851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>530</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>460</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>531</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,49 +6253,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>550</v>
+        <v>883</v>
       </c>
       <c r="D18" s="7">
-        <v>659468</v>
+        <v>858080</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>532</v>
+        <v>461</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>534</v>
+        <v>463</v>
       </c>
       <c r="H18" s="7">
-        <v>831</v>
+        <v>1365</v>
       </c>
       <c r="I18" s="7">
-        <v>675974</v>
+        <v>933334</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>535</v>
+        <v>464</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>536</v>
+        <v>465</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>537</v>
+        <v>466</v>
       </c>
       <c r="M18" s="7">
-        <v>1381</v>
+        <v>2248</v>
       </c>
       <c r="N18" s="7">
-        <v>1335441</v>
+        <v>1791414</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>538</v>
+        <v>467</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>194</v>
+        <v>468</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>539</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7207,10 +6304,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D19" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -7222,10 +6319,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1041</v>
+        <v>1556</v>
       </c>
       <c r="I19" s="7">
-        <v>750209</v>
+        <v>1013657</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -7237,10 +6334,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1717</v>
+        <v>2562</v>
       </c>
       <c r="N19" s="7">
-        <v>1478980</v>
+        <v>1940488</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -7254,55 +6351,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>62</v>
+        <v>247</v>
       </c>
       <c r="D20" s="7">
-        <v>9891</v>
+        <v>40502</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>540</v>
+        <v>469</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>541</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>542</v>
+        <v>470</v>
       </c>
       <c r="H20" s="7">
-        <v>94</v>
+        <v>370</v>
       </c>
       <c r="I20" s="7">
-        <v>14965</v>
+        <v>59884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>543</v>
+        <v>471</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>544</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>545</v>
+        <v>472</v>
       </c>
       <c r="M20" s="7">
-        <v>156</v>
+        <v>617</v>
       </c>
       <c r="N20" s="7">
-        <v>24856</v>
+        <v>100386</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>546</v>
+        <v>473</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>547</v>
+        <v>474</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>548</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,49 +6408,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="D21" s="7">
-        <v>60198</v>
+        <v>179403</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>149</v>
+        <v>476</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>549</v>
+        <v>477</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="H21" s="7">
-        <v>97</v>
+        <v>261</v>
       </c>
       <c r="I21" s="7">
-        <v>70350</v>
+        <v>170215</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>550</v>
+        <v>479</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>551</v>
+        <v>480</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>552</v>
+        <v>481</v>
       </c>
       <c r="M21" s="7">
-        <v>158</v>
+        <v>432</v>
       </c>
       <c r="N21" s="7">
-        <v>130548</v>
+        <v>349618</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>553</v>
+        <v>482</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>554</v>
+        <v>483</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>555</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7362,49 +6459,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>883</v>
+        <v>2956</v>
       </c>
       <c r="D22" s="7">
-        <v>895314</v>
+        <v>2986271</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>556</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>557</v>
+        <v>485</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>558</v>
+        <v>486</v>
       </c>
       <c r="H22" s="7">
-        <v>1365</v>
+        <v>4717</v>
       </c>
       <c r="I22" s="7">
-        <v>1035961</v>
+        <v>3106690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>559</v>
+        <v>487</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>560</v>
+        <v>488</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>561</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
-        <v>2248</v>
+        <v>7673</v>
       </c>
       <c r="N22" s="7">
-        <v>1931275</v>
+        <v>6092961</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>562</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>563</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>564</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7413,10 +6510,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1006</v>
+        <v>3374</v>
       </c>
       <c r="D23" s="7">
-        <v>965403</v>
+        <v>3206176</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -7428,10 +6525,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1556</v>
+        <v>5348</v>
       </c>
       <c r="I23" s="7">
-        <v>1121276</v>
+        <v>3336790</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -7443,10 +6540,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2562</v>
+        <v>8722</v>
       </c>
       <c r="N23" s="7">
-        <v>2086679</v>
+        <v>6542966</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -7459,222 +6556,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>247</v>
-      </c>
-      <c r="D24" s="7">
-        <v>39425</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="H24" s="7">
-        <v>370</v>
-      </c>
-      <c r="I24" s="7">
-        <v>58939</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="M24" s="7">
-        <v>617</v>
-      </c>
-      <c r="N24" s="7">
-        <v>98364</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>171</v>
-      </c>
-      <c r="D25" s="7">
-        <v>180904</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H25" s="7">
-        <v>261</v>
-      </c>
-      <c r="I25" s="7">
-        <v>181674</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="M25" s="7">
-        <v>432</v>
-      </c>
-      <c r="N25" s="7">
-        <v>362578</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2956</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3108625</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="H26" s="7">
-        <v>4717</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3410665</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="M26" s="7">
-        <v>7673</v>
-      </c>
-      <c r="N26" s="7">
-        <v>6519290</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3328954</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5348</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3651278</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8722</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6980232</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>173</v>
+      <c r="A24" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
